--- a/Proiect/stocksInfo.xlsx
+++ b/Proiect/stocksInfo.xlsx
@@ -55,28 +55,10 @@
     <x:t>Change</x:t>
   </x:si>
   <x:si>
-    <x:t>204.24B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.22B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92.36B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.62 (3.76%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76.68%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,643,173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149.37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-0.47%</x:t>
+    <x:t>TSLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
   <x:si>
     <x:t>KO</x:t>
@@ -118,6 +100,12 @@
     <x:t>7.98B</x:t>
   </x:si>
   <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.00%</x:t>
+  </x:si>
+  <x:si>
     <x:t>4,826,066</x:t>
   </x:si>
   <x:si>
@@ -220,12 +208,6 @@
     <x:t>350,012</x:t>
   </x:si>
   <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.00%</x:t>
-  </x:si>
-  <x:si>
     <x:t>32.56</x:t>
   </x:si>
   <x:si>
@@ -295,43 +277,40 @@
     <x:t>4.08 (2.99%)</x:t>
   </x:si>
   <x:si>
+    <x:t>2,019,358</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136.81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-2.08%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49.13B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.36B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.33B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.14 (4.69%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95.58%</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,713,961</x:t>
   </x:si>
   <x:si>
-    <x:t>2,019,358</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136.81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-2.08%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49.13B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.36B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20.33B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.14 (4.69%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95.58%</x:t>
-  </x:si>
-  <x:si>
     <x:t>88.39</x:t>
   </x:si>
   <x:si>
     <x:t>-1.57%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pepsi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -700,321 +679,321 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="I3" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="I4" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="I5" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="I6" s="0" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="I7" s="0" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="I8" s="0" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
         <x:v>68</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="H10" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="I10" s="0" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="I11" s="0" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="I12" s="0" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
